--- a/data/dyb.xlsx
+++ b/data/dyb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12760"/>
+    <workbookView windowWidth="24460" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="数据源概览" sheetId="1" r:id="rId1"/>
@@ -1531,13 +1531,13 @@
     <t>贵阳市</t>
   </si>
   <si>
-    <t>德阳</t>
+    <t>德阳市</t>
   </si>
   <si>
     <t>2020-至今</t>
   </si>
   <si>
-    <t>泸州</t>
+    <t>泸州市</t>
   </si>
   <si>
     <t>2017-至今</t>
@@ -2855,7 +2855,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2"/>
@@ -2902,7 +2902,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" ht="76" spans="1:23">
+    <row r="2" ht="46" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>

--- a/data/dyb.xlsx
+++ b/data/dyb.xlsx
@@ -10,7 +10,7 @@
     <sheet name="数据源概览" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源概览!$A$2:$W$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据源概览!$A$2:$U$25</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -98,7 +98,7 @@
     <author>tc={C7332BF5-7567-4338-A3CA-3C89399ADED2}</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1">
+    <comment ref="N3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="2">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="3">
+    <comment ref="P3" authorId="3">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="4">
+    <comment ref="M4" authorId="4">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="5">
+    <comment ref="N4" authorId="5">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="6">
+    <comment ref="O4" authorId="6">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="7">
+    <comment ref="P4" authorId="7">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="8">
+    <comment ref="R4" authorId="8">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="9">
+    <comment ref="M5" authorId="9">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="10">
+    <comment ref="N5" authorId="10">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="11">
+    <comment ref="O5" authorId="11">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="12">
+    <comment ref="P5" authorId="12">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="13">
+    <comment ref="R5" authorId="13">
       <text>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="14">
+    <comment ref="M8" authorId="14">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="15">
+    <comment ref="N8" authorId="15">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="16">
+    <comment ref="O8" authorId="16">
       <text>
         <r>
           <rPr>
@@ -302,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="17">
+    <comment ref="P8" authorId="17">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="18">
+    <comment ref="J10" authorId="18">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="19">
+    <comment ref="K10" authorId="19">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="20">
+    <comment ref="L10" authorId="20">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="21">
+    <comment ref="M10" authorId="21">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="22">
+    <comment ref="N10" authorId="22">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="23">
+    <comment ref="O10" authorId="23">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="24">
+    <comment ref="P10" authorId="24">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="25">
+    <comment ref="M11" authorId="25">
       <text>
         <r>
           <rPr>
@@ -410,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N13" authorId="26">
+    <comment ref="N11" authorId="26">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="27">
+    <comment ref="O11" authorId="27">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="28">
+    <comment ref="P11" authorId="28">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="29">
+    <comment ref="M14" authorId="29">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="30">
+    <comment ref="N14" authorId="30">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="31">
+    <comment ref="O14" authorId="31">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="32">
+    <comment ref="P14" authorId="32">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="33">
+    <comment ref="R14" authorId="33">
       <text>
         <r>
           <rPr>
@@ -506,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="34">
+    <comment ref="E15" authorId="34">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="35">
+    <comment ref="F15" authorId="35">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="36">
+    <comment ref="G15" authorId="36">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="37">
+    <comment ref="L15" authorId="37">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="38">
+    <comment ref="M15" authorId="38">
       <text>
         <r>
           <rPr>
@@ -566,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="39">
+    <comment ref="N15" authorId="39">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="40">
+    <comment ref="O15" authorId="40">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="41">
+    <comment ref="P15" authorId="41">
       <text>
         <r>
           <rPr>
@@ -602,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="42">
+    <comment ref="R15" authorId="42">
       <text>
         <r>
           <rPr>
@@ -614,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="43">
+    <comment ref="M16" authorId="43">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="44">
+    <comment ref="N16" authorId="44">
       <text>
         <r>
           <rPr>
@@ -638,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P18" authorId="45">
+    <comment ref="P16" authorId="45">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="46">
+    <comment ref="M17" authorId="46">
       <text>
         <r>
           <rPr>
@@ -662,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N19" authorId="47">
+    <comment ref="N17" authorId="47">
       <text>
         <r>
           <rPr>
@@ -674,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="48">
+    <comment ref="O17" authorId="48">
       <text>
         <r>
           <rPr>
@@ -686,7 +686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P19" authorId="49">
+    <comment ref="P17" authorId="49">
       <text>
         <r>
           <rPr>
@@ -698,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="50">
+    <comment ref="M18" authorId="50">
       <text>
         <r>
           <rPr>
@@ -710,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="51">
+    <comment ref="N18" authorId="51">
       <text>
         <r>
           <rPr>
@@ -722,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="52">
+    <comment ref="O18" authorId="52">
       <text>
         <r>
           <rPr>
@@ -734,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P20" authorId="53">
+    <comment ref="P18" authorId="53">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="54">
+    <comment ref="M20" authorId="54">
       <text>
         <r>
           <rPr>
@@ -758,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="55">
+    <comment ref="N20" authorId="55">
       <text>
         <r>
           <rPr>
@@ -770,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="56">
+    <comment ref="O20" authorId="56">
       <text>
         <r>
           <rPr>
@@ -782,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="57">
+    <comment ref="P20" authorId="57">
       <text>
         <r>
           <rPr>
@@ -794,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="58">
+    <comment ref="R20" authorId="58">
       <text>
         <r>
           <rPr>
@@ -806,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="59">
+    <comment ref="M21" authorId="59">
       <text>
         <r>
           <rPr>
@@ -818,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N23" authorId="60">
+    <comment ref="N21" authorId="60">
       <text>
         <r>
           <rPr>
@@ -830,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="61">
+    <comment ref="O21" authorId="61">
       <text>
         <r>
           <rPr>
@@ -842,7 +842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="62">
+    <comment ref="P21" authorId="62">
       <text>
         <r>
           <rPr>
@@ -854,7 +854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="63">
+    <comment ref="R21" authorId="63">
       <text>
         <r>
           <rPr>
@@ -866,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M25" authorId="64">
+    <comment ref="M23" authorId="64">
       <text>
         <r>
           <rPr>
@@ -878,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N25" authorId="65">
+    <comment ref="N23" authorId="65">
       <text>
         <r>
           <rPr>
@@ -890,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="66">
+    <comment ref="O23" authorId="66">
       <text>
         <r>
           <rPr>
@@ -902,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P25" authorId="67">
+    <comment ref="P23" authorId="67">
       <text>
         <r>
           <rPr>
@@ -914,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="68">
+    <comment ref="E24" authorId="68">
       <text>
         <r>
           <rPr>
@@ -926,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="69">
+    <comment ref="F24" authorId="69">
       <text>
         <r>
           <rPr>
@@ -938,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="70">
+    <comment ref="G24" authorId="70">
       <text>
         <r>
           <rPr>
@@ -950,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N26" authorId="71">
+    <comment ref="N24" authorId="71">
       <text>
         <r>
           <rPr>
@@ -962,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="72">
+    <comment ref="O24" authorId="72">
       <text>
         <r>
           <rPr>
@@ -974,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="73">
+    <comment ref="P24" authorId="73">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="74">
+    <comment ref="N25" authorId="74">
       <text>
         <r>
           <rPr>
@@ -998,7 +998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="75">
+    <comment ref="O25" authorId="75">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1010,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="76">
+    <comment ref="P25" authorId="76">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="82">
   <si>
     <t>医院覆盖比例</t>
   </si>
@@ -1272,50 +1272,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是否做过患者号合并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（跨院查询患者就诊）</t>
-    </r>
-  </si>
-  <si>
-    <t>是否做过表结构、字段标准化</t>
-  </si>
-  <si>
-    <t>ACURE</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>浪潮健康</t>
   </si>
   <si>
@@ -1337,14 +1293,11 @@
     <t>直连</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>天津市</t>
   </si>
   <si>
-    <t>南京江北新区
-生物医药平台</t>
+    <t>南京江北新区生物医药平台
+（医疗数据）</t>
   </si>
   <si>
     <t>华东</t>
@@ -1353,19 +1306,13 @@
     <t>江苏省</t>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
     <t>2015-至今</t>
   </si>
   <si>
-    <t>周度（直连）
-月度（上报）</t>
-  </si>
-  <si>
-    <t>大部分三级二级医院直连，其他走公卫体系（上报？）</t>
-  </si>
-  <si>
-    <t>南京江北新区
-生物医药平台
-（医疗数据）</t>
+    <t>月度</t>
   </si>
   <si>
     <t>北方健康</t>
@@ -1378,10 +1325,6 @@
   </si>
   <si>
     <t>上报</t>
-  </si>
-  <si>
-    <t>否
-（身份证+姓名查询）</t>
   </si>
   <si>
     <t>济南市</t>
@@ -1397,17 +1340,11 @@
     <t>2013-至今</t>
   </si>
   <si>
-    <t>季度/月度</t>
-  </si>
-  <si>
     <t>上报/统一采集治理</t>
   </si>
   <si>
     <t>北方健康
 （万松科技）</t>
-  </si>
-  <si>
-    <t>月度</t>
   </si>
   <si>
     <t>宁数科创</t>
@@ -1417,9 +1354,6 @@
   </si>
   <si>
     <t>宁波市</t>
-  </si>
-  <si>
-    <t>&gt;82</t>
   </si>
   <si>
     <t>2011-至今</t>
@@ -1453,9 +1387,6 @@
   </si>
   <si>
     <t>2002-至今</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>厦门药研所</t>
@@ -2217,7 +2148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2306,9 +2237,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2848,14 +2776,14 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:W205"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2"/>
@@ -2874,11 +2802,9 @@
     <col min="18" max="19" width="14.2115384615385" customWidth="1"/>
     <col min="20" max="20" width="22.3173076923077" customWidth="1"/>
     <col min="21" max="21" width="22.8076923076923" customWidth="1"/>
-    <col min="22" max="22" width="19.2019230769231" customWidth="1"/>
-    <col min="23" max="23" width="13.8076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37" customHeight="1" spans="1:23">
+    <row r="1" ht="37" customHeight="1" spans="1:21">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2899,10 +2825,8 @@
       </c>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" ht="46" spans="1:23">
+    </row>
+    <row r="2" ht="46" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2966,345 +2890,351 @@
       <c r="U2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="13">
+        <f>J3/N3</f>
+        <v>0.875</v>
+      </c>
+      <c r="G3" s="13">
+        <f>K3/O3</f>
+        <v>0.28</v>
+      </c>
+      <c r="H3" s="13">
+        <f>L3/P3</f>
+        <v>0.264150943396226</v>
+      </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="26">
-        <v>1</v>
-      </c>
+      <c r="J3" s="19">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19">
+        <v>14</v>
+      </c>
+      <c r="L3" s="19">
+        <v>28</v>
+      </c>
+      <c r="M3" s="19">
+        <v>7</v>
+      </c>
+      <c r="N3" s="19">
+        <v>16</v>
+      </c>
+      <c r="O3" s="19">
+        <v>50</v>
+      </c>
+      <c r="P3" s="19">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="S3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13">
+        <f>I4/M4</f>
+        <v>0.878787878787879</v>
+      </c>
       <c r="F4" s="13">
-        <f t="shared" ref="F4:F9" si="0">J4/N4</f>
-        <v>0.875</v>
+        <f>J4/N4</f>
+        <v>0.877551020408163</v>
       </c>
       <c r="G4" s="13">
-        <f t="shared" ref="G4:G9" si="1">K4/O4</f>
-        <v>0.28</v>
+        <f>K4/O4</f>
+        <v>0.448275862068966</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:H9" si="2">L4/P4</f>
-        <v>0.264150943396226</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19">
-        <v>14</v>
-      </c>
-      <c r="K4" s="19">
-        <v>14</v>
-      </c>
-      <c r="L4" s="19">
+        <f>L4/P4</f>
+        <v>0.189814814814815</v>
+      </c>
+      <c r="I4" s="20">
+        <v>29</v>
+      </c>
+      <c r="J4" s="20">
+        <v>43</v>
+      </c>
+      <c r="K4" s="20">
+        <v>39</v>
+      </c>
+      <c r="L4" s="20">
+        <v>82</v>
+      </c>
+      <c r="M4" s="20">
+        <v>33</v>
+      </c>
+      <c r="N4" s="20">
+        <v>49</v>
+      </c>
+      <c r="O4" s="20">
+        <v>87</v>
+      </c>
+      <c r="P4" s="20">
+        <v>432</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>2100</v>
+      </c>
+      <c r="R4" s="26">
+        <v>1373</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="46" spans="1:21">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="19">
-        <v>7</v>
-      </c>
-      <c r="N4" s="19">
-        <v>16</v>
-      </c>
-      <c r="O4" s="19">
-        <v>50</v>
-      </c>
-      <c r="P4" s="19">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="27" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
+        <f>J5/N5</f>
+        <v>1.08866995073892</v>
+      </c>
+      <c r="G5" s="13">
+        <f>K5/O5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>L5/P5</f>
+        <v>0.688177339901478</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19">
+        <v>221</v>
+      </c>
+      <c r="K5" s="19">
+        <v>463</v>
+      </c>
+      <c r="L5" s="19">
+        <f>221+463+713</f>
+        <v>1397</v>
+      </c>
+      <c r="M5" s="19">
+        <v>80</v>
+      </c>
+      <c r="N5" s="19">
+        <v>203</v>
+      </c>
+      <c r="O5" s="19">
+        <v>463</v>
+      </c>
+      <c r="P5" s="19">
+        <v>2030</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>8000</v>
+      </c>
+      <c r="R5" s="26">
+        <v>8505</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="U4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="13">
-        <f>I5/M5</f>
-        <v>0.878787878787879</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.877551020408163</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.448275862068966</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="2"/>
-        <v>0.189814814814815</v>
-      </c>
-      <c r="I5" s="20">
-        <v>29</v>
-      </c>
-      <c r="J5" s="20">
-        <v>43</v>
-      </c>
-      <c r="K5" s="20">
-        <v>39</v>
-      </c>
-      <c r="L5" s="20">
-        <v>82</v>
-      </c>
-      <c r="M5" s="20">
-        <v>33</v>
-      </c>
-      <c r="N5" s="20">
-        <v>49</v>
-      </c>
-      <c r="O5" s="20">
-        <v>87</v>
-      </c>
-      <c r="P5" s="20">
-        <v>432</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>2100</v>
-      </c>
-      <c r="R5" s="26">
-        <v>1373</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" ht="46" spans="1:23">
-      <c r="A6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.08866995073892</v>
+        <f>J6/N6</f>
+        <v>0.897959183673469</v>
       </c>
       <c r="G6" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>K6/O6</f>
+        <v>0.698648648648649</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="2"/>
-        <v>0.688177339901478</v>
+        <f>L6/P6</f>
+        <v>1.20497362471741</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="K6" s="19">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="L6" s="19">
-        <f>221+463+713</f>
-        <v>1397</v>
+        <v>3198</v>
       </c>
       <c r="M6" s="19">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="N6" s="19">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O6" s="19">
-        <v>463</v>
+        <v>740</v>
       </c>
       <c r="P6" s="19">
-        <v>2030</v>
+        <v>2654</v>
       </c>
       <c r="Q6" s="26">
-        <v>8100</v>
+        <v>2073</v>
       </c>
       <c r="R6" s="26">
-        <v>8505</v>
+        <v>10200</v>
       </c>
       <c r="S6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="U6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" ht="46" spans="1:23">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>J7/N7</f>
+        <v>1.11111111111111</v>
       </c>
       <c r="G7" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>K7/O7</f>
+        <v>0.579710144927536</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L7/P7</f>
+        <v>0.28673835125448</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="19">
+        <v>40</v>
+      </c>
+      <c r="K7" s="19">
+        <v>40</v>
+      </c>
+      <c r="L7" s="19">
+        <v>80</v>
+      </c>
       <c r="M7" s="19">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N7" s="19">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="O7" s="19">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="P7" s="19">
-        <v>2030</v>
-      </c>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-    </row>
-    <row r="8" ht="46" spans="1:23">
-      <c r="A8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1700</v>
+      </c>
+      <c r="R7" s="26">
+        <v>933</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="31" spans="1:21">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.897959183673469</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.698648648648649</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="2"/>
-        <v>1.20497362471741</v>
-      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="19">
-        <v>176</v>
-      </c>
-      <c r="K8" s="19">
-        <v>517</v>
-      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="19">
-        <v>3198</v>
+        <v>456</v>
       </c>
       <c r="M8" s="19">
         <v>107</v>
@@ -3318,1147 +3248,985 @@
       <c r="P8" s="19">
         <v>2654</v>
       </c>
-      <c r="Q8" s="26">
-        <v>2073</v>
-      </c>
-      <c r="R8" s="26">
-        <v>10200</v>
-      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="T8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="30" t="s">
+    </row>
+    <row r="9" ht="31" spans="1:21">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="30" t="s">
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
-        <f t="shared" si="0"/>
-        <v>1.11111111111111</v>
+        <v>0.98</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.579710144927536</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="2"/>
-        <v>0.28673835125448</v>
-      </c>
+        <v>0.78</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="19">
-        <v>40</v>
-      </c>
-      <c r="K9" s="19">
-        <v>40</v>
-      </c>
-      <c r="L9" s="19">
-        <v>80</v>
-      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="19">
+        <v>107</v>
+      </c>
+      <c r="N9" s="19">
+        <v>196</v>
+      </c>
+      <c r="O9" s="19">
+        <v>740</v>
+      </c>
+      <c r="P9" s="19">
+        <v>2654</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>4700</v>
+      </c>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13">
+        <f>J10/N10</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G10" s="13">
+        <f>K10/O10</f>
+        <v>0.492753623188406</v>
+      </c>
+      <c r="H10" s="13">
+        <f>L10/P10</f>
+        <v>0.164874551971326</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
+        <v>12</v>
+      </c>
+      <c r="K10" s="19">
         <v>34</v>
       </c>
-      <c r="N9" s="19">
+      <c r="L10" s="19">
+        <v>46</v>
+      </c>
+      <c r="M10" s="19">
+        <v>34</v>
+      </c>
+      <c r="N10" s="19">
         <v>36</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O10" s="19">
         <v>69</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P10" s="19">
         <v>279</v>
       </c>
-      <c r="Q9" s="26">
-        <v>1700</v>
-      </c>
-      <c r="R9" s="26">
-        <v>933</v>
-      </c>
-      <c r="S9" s="27" t="s">
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="31" spans="1:23">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E11" s="13">
+        <f>I11/M11</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <f>J11/N11</f>
+        <v>0.952380952380952</v>
+      </c>
+      <c r="G11" s="13">
+        <f>K11/O11</f>
+        <v>0.644444444444444</v>
+      </c>
+      <c r="H11" s="13">
+        <f>L11/P11</f>
+        <v>0.414141414141414</v>
+      </c>
+      <c r="I11" s="20">
+        <v>9</v>
+      </c>
+      <c r="J11" s="20">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19">
-        <v>456</v>
-      </c>
-      <c r="M10" s="19">
-        <v>107</v>
-      </c>
-      <c r="N10" s="19">
-        <v>196</v>
-      </c>
-      <c r="O10" s="19">
-        <v>740</v>
-      </c>
-      <c r="P10" s="19">
-        <v>2654</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="27" t="s">
+      <c r="K11" s="20">
+        <v>29</v>
+      </c>
+      <c r="L11" s="20">
+        <v>82</v>
+      </c>
+      <c r="M11" s="20">
+        <v>9</v>
+      </c>
+      <c r="N11" s="20">
+        <v>21</v>
+      </c>
+      <c r="O11" s="20">
         <v>45</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-    </row>
-    <row r="11" ht="31" spans="1:23">
-      <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.78</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19">
-        <v>107</v>
-      </c>
-      <c r="N11" s="19">
-        <v>196</v>
-      </c>
-      <c r="O11" s="19">
-        <v>740</v>
-      </c>
-      <c r="P11" s="19">
-        <v>2654</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>4700</v>
-      </c>
+      <c r="P11" s="20">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="16" spans="1:23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13">
-        <f>J12/N12</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G12" s="13">
-        <f>K12/O12</f>
-        <v>0.492753623188406</v>
-      </c>
-      <c r="H12" s="13">
-        <f>L12/P12</f>
-        <v>0.164874551971326</v>
-      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19">
-        <v>12</v>
-      </c>
-      <c r="K12" s="19">
-        <v>34</v>
-      </c>
-      <c r="L12" s="19">
-        <v>46</v>
-      </c>
-      <c r="M12" s="19">
-        <v>34</v>
-      </c>
-      <c r="N12" s="19">
-        <v>36</v>
-      </c>
-      <c r="O12" s="19">
-        <v>69</v>
-      </c>
-      <c r="P12" s="19">
-        <v>279</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="27"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="30" t="s">
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W12" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="13">
-        <f>I13/M13</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="13">
-        <f>J13/N13</f>
-        <v>0.952380952380952</v>
-      </c>
-      <c r="G13" s="13">
-        <f>K13/O13</f>
-        <v>0.644444444444444</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="20">
-        <v>9</v>
-      </c>
-      <c r="J13" s="20">
-        <v>20</v>
-      </c>
-      <c r="K13" s="20">
-        <v>29</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="20">
-        <v>9</v>
-      </c>
-      <c r="N13" s="20">
-        <v>21</v>
-      </c>
-      <c r="O13" s="20">
-        <v>45</v>
-      </c>
-      <c r="P13" s="20">
-        <v>198</v>
-      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="27" t="s">
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="13">
+        <f>I14/M14</f>
+        <v>0.222222222222222</v>
+      </c>
+      <c r="F14" s="13">
+        <f>J14/N14</f>
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="13">
+        <f>K14/O14</f>
+        <v>0.294117647058824</v>
+      </c>
+      <c r="H14" s="13">
+        <f>L14/P14</f>
+        <v>0.145833333333333</v>
+      </c>
+      <c r="I14" s="20">
+        <v>4</v>
+      </c>
+      <c r="J14" s="20">
+        <v>9</v>
+      </c>
+      <c r="K14" s="20">
+        <v>10</v>
+      </c>
+      <c r="L14" s="20">
+        <v>21</v>
+      </c>
+      <c r="M14" s="20">
+        <v>18</v>
+      </c>
+      <c r="N14" s="20">
+        <v>30</v>
+      </c>
+      <c r="O14" s="20">
+        <v>34</v>
+      </c>
+      <c r="P14" s="20">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26">
+        <v>842</v>
+      </c>
+      <c r="S14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="T13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="3" t="s">
+      <c r="T14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="16" spans="1:21">
+      <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19">
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <f>L15/P15</f>
+        <v>0.676923076923077</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20">
+        <v>44</v>
+      </c>
+      <c r="M15" s="20">
+        <v>9</v>
+      </c>
+      <c r="N15" s="20">
         <v>16</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27" t="s">
+      <c r="O15" s="20">
+        <v>25</v>
+      </c>
+      <c r="P15" s="20">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="26">
+        <v>528</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="3" t="s">
+      <c r="T15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="13">
-        <f>I16/M16</f>
-        <v>0.222222222222222</v>
-      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13">
         <f>J16/N16</f>
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="13">
-        <f>K16/O16</f>
-        <v>0.294117647058824</v>
-      </c>
+        <v>0.233333333333333</v>
+      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="13">
         <f>L16/P16</f>
-        <v>0.145833333333333</v>
-      </c>
-      <c r="I16" s="20">
-        <v>4</v>
-      </c>
-      <c r="J16" s="20">
-        <v>9</v>
-      </c>
-      <c r="K16" s="20">
-        <v>10</v>
-      </c>
-      <c r="L16" s="20">
+        <v>0.221518987341772</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
+        <v>7</v>
+      </c>
+      <c r="K16" s="19">
+        <v>28</v>
+      </c>
+      <c r="L16" s="19">
+        <v>35</v>
+      </c>
+      <c r="M16" s="19">
+        <v>18</v>
+      </c>
+      <c r="N16" s="19">
+        <v>30</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="20">
-        <v>18</v>
-      </c>
-      <c r="N16" s="20">
-        <v>30</v>
-      </c>
-      <c r="O16" s="20">
+      <c r="T16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="31" spans="1:21">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13">
+        <f>J17/N17</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="13">
+        <f>K17/O17</f>
+        <v>0.617647058823529</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19">
+        <v>27</v>
+      </c>
+      <c r="K17" s="19">
+        <v>42</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19">
+        <v>16</v>
+      </c>
+      <c r="N17" s="19">
+        <v>36</v>
+      </c>
+      <c r="O17" s="19">
+        <v>68</v>
+      </c>
+      <c r="P17" s="19">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27">
+        <v>2022</v>
+      </c>
+      <c r="T17" s="27"/>
+      <c r="U17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="20">
-        <v>144</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26">
-        <v>842</v>
-      </c>
-      <c r="S16" s="27" t="s">
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="T16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V16" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="30" t="s">
+      <c r="D18" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" ht="16" spans="1:23">
-      <c r="A17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19">
+        <v>25</v>
+      </c>
+      <c r="N18" s="19">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <f>L17/P17</f>
-        <v>0.676923076923077</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20">
-        <v>44</v>
-      </c>
-      <c r="M17" s="20">
-        <v>9</v>
-      </c>
-      <c r="N17" s="20">
-        <v>16</v>
-      </c>
-      <c r="O17" s="20">
-        <v>25</v>
-      </c>
-      <c r="P17" s="20">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>3000</v>
-      </c>
-      <c r="R17" s="26">
-        <v>528</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
-        <f>J18/N18</f>
-        <v>0.233333333333333</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
-        <f>L18/P18</f>
-        <v>0.221518987341772</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19">
-        <v>7</v>
-      </c>
-      <c r="K18" s="19">
-        <v>28</v>
-      </c>
-      <c r="L18" s="19">
-        <v>35</v>
-      </c>
-      <c r="M18" s="19">
-        <v>18</v>
-      </c>
-      <c r="N18" s="19">
-        <v>30</v>
-      </c>
-      <c r="O18" s="19"/>
+      <c r="O18" s="19">
+        <v>75</v>
+      </c>
       <c r="P18" s="19">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="31" spans="1:23">
-      <c r="A19" s="5" t="s">
-        <v>71</v>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="30"/>
+    </row>
+    <row r="19" ht="46" spans="1:21">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13">
-        <f>J19/N19</f>
-        <v>0.75</v>
-      </c>
-      <c r="G19" s="13">
-        <f>K19/O19</f>
-        <v>0.617647058823529</v>
-      </c>
-      <c r="H19" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K19" s="19">
-        <v>42</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19">
-        <v>16</v>
-      </c>
-      <c r="N19" s="19">
-        <v>36</v>
-      </c>
-      <c r="O19" s="19">
-        <v>68</v>
-      </c>
-      <c r="P19" s="19">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="27">
-        <v>2022</v>
-      </c>
-      <c r="T19" s="27"/>
+      <c r="S19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="U19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="13">
+        <f>I20/M20</f>
+        <v>0.290909090909091</v>
+      </c>
+      <c r="F20" s="13">
+        <f>J20/N20</f>
+        <v>0.137931034482759</v>
+      </c>
+      <c r="G20" s="13">
+        <f>K20/O20</f>
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="H20" s="13">
+        <f>L20/P20</f>
+        <v>0.0476858345021038</v>
+      </c>
+      <c r="I20" s="20">
+        <v>16</v>
+      </c>
+      <c r="J20" s="20">
+        <v>16</v>
+      </c>
+      <c r="K20" s="20">
+        <v>18</v>
+      </c>
+      <c r="L20" s="20">
+        <v>34</v>
+      </c>
+      <c r="M20" s="20">
+        <v>55</v>
+      </c>
+      <c r="N20" s="20">
+        <v>116</v>
+      </c>
+      <c r="O20" s="20">
+        <v>182</v>
+      </c>
+      <c r="P20" s="20">
+        <v>713</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26">
+        <v>2119</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="46" spans="1:21">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13">
+        <f>I21/M21</f>
+        <v>1.20588235294118</v>
+      </c>
+      <c r="F21" s="13">
+        <f>J21/N21</f>
+        <v>0.707692307692308</v>
+      </c>
+      <c r="G21" s="13">
+        <f>K21/O21</f>
+        <v>0.580524344569288</v>
+      </c>
+      <c r="H21" s="13">
+        <f>L21/P21</f>
+        <v>0.306526806526807</v>
+      </c>
+      <c r="I21" s="20">
+        <v>41</v>
+      </c>
+      <c r="J21" s="20">
+        <v>46</v>
+      </c>
+      <c r="K21" s="20">
+        <v>155</v>
+      </c>
+      <c r="L21" s="20">
+        <v>263</v>
+      </c>
+      <c r="M21" s="20">
+        <v>34</v>
+      </c>
+      <c r="N21" s="20">
+        <v>65</v>
+      </c>
+      <c r="O21" s="20">
+        <v>267</v>
+      </c>
+      <c r="P21" s="20">
+        <v>858</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>3631</v>
+      </c>
+      <c r="R21" s="26">
+        <v>3212</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" ht="31" spans="1:21">
+      <c r="A22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19">
-        <v>25</v>
-      </c>
-      <c r="N20" s="19">
-        <v>61</v>
-      </c>
-      <c r="O20" s="19">
-        <v>75</v>
-      </c>
-      <c r="P20" s="19">
-        <v>314</v>
-      </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-    </row>
-    <row r="21" ht="46" spans="1:23">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19">
-        <v>3</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>3</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="T21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V21" s="30" t="s">
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E22" s="13">
         <f>I22/M22</f>
-        <v>0.290909090909091</v>
+        <v>1.32352941176471</v>
       </c>
       <c r="F22" s="13">
         <f>J22/N22</f>
-        <v>0.137931034482759</v>
+        <v>1.13846153846154</v>
       </c>
       <c r="G22" s="13">
         <f>K22/O22</f>
-        <v>0.0989010989010989</v>
+        <v>0.50187265917603</v>
       </c>
       <c r="H22" s="13">
         <f>L22/P22</f>
-        <v>0.0476858345021038</v>
+        <v>0.283216783216783</v>
       </c>
       <c r="I22" s="20">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J22" s="20">
-        <v>16</v>
+        <f>68+6</f>
+        <v>74</v>
       </c>
       <c r="K22" s="20">
-        <v>18</v>
+        <f>120+14</f>
+        <v>134</v>
       </c>
       <c r="L22" s="20">
+        <v>243</v>
+      </c>
+      <c r="M22" s="20">
         <v>34</v>
       </c>
-      <c r="M22" s="20">
-        <v>55</v>
-      </c>
       <c r="N22" s="20">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="O22" s="20">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="P22" s="20">
-        <v>713</v>
+        <v>858</v>
       </c>
       <c r="Q22" s="26"/>
-      <c r="R22" s="26">
-        <v>2119.2</v>
-      </c>
+      <c r="R22" s="26"/>
       <c r="S22" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="T22" s="27"/>
       <c r="U22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="46" spans="1:23">
-      <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="13">
-        <f>I23/M23</f>
-        <v>1.20588235294118</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="13">
         <f>J23/N23</f>
-        <v>0.707692307692308</v>
-      </c>
-      <c r="G23" s="13">
-        <f>K23/O23</f>
-        <v>0.580524344569288</v>
-      </c>
-      <c r="H23" s="13">
-        <f>L23/P23</f>
-        <v>0.306526806526807</v>
-      </c>
-      <c r="I23" s="20">
-        <v>41</v>
-      </c>
-      <c r="J23" s="20">
-        <v>46</v>
-      </c>
-      <c r="K23" s="20">
-        <v>155</v>
-      </c>
-      <c r="L23" s="20">
-        <v>263</v>
-      </c>
-      <c r="M23" s="20">
-        <v>34</v>
-      </c>
-      <c r="N23" s="20">
-        <v>65</v>
-      </c>
-      <c r="O23" s="20">
-        <v>267</v>
-      </c>
-      <c r="P23" s="20">
-        <v>858</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>3631</v>
-      </c>
-      <c r="R23" s="26">
-        <v>3212</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="U23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="31" spans="1:23">
-      <c r="A24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>0.241379310344828</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22">
+        <v>7</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22">
+        <v>11</v>
+      </c>
+      <c r="N23" s="22">
+        <v>29</v>
+      </c>
+      <c r="O23" s="22">
+        <v>58</v>
+      </c>
+      <c r="P23" s="22">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="30"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="19">
+        <v>2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>16</v>
+      </c>
+      <c r="K24" s="19">
         <v>20</v>
       </c>
-      <c r="E24" s="13">
-        <f>I24/M24</f>
-        <v>1.32352941176471</v>
-      </c>
-      <c r="F24" s="13">
-        <f>J24/N24</f>
-        <v>1.13846153846154</v>
-      </c>
-      <c r="G24" s="13">
-        <f>K24/O24</f>
-        <v>0.50187265917603</v>
-      </c>
-      <c r="H24" s="13">
-        <f>L24/P24</f>
-        <v>0.283216783216783</v>
-      </c>
-      <c r="I24" s="20">
-        <v>45</v>
-      </c>
-      <c r="J24" s="20">
-        <f>68+6</f>
-        <v>74</v>
-      </c>
-      <c r="K24" s="20">
-        <f>120+14</f>
-        <v>134</v>
-      </c>
-      <c r="L24" s="20">
-        <v>243</v>
-      </c>
-      <c r="M24" s="20">
-        <v>34</v>
-      </c>
-      <c r="N24" s="20">
-        <v>65</v>
-      </c>
-      <c r="O24" s="20">
-        <v>267</v>
-      </c>
-      <c r="P24" s="20">
-        <v>858</v>
+      <c r="L24" s="19">
+        <v>36</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19">
+        <v>12</v>
+      </c>
+      <c r="O24" s="19">
+        <v>30</v>
+      </c>
+      <c r="P24" s="19">
+        <v>90</v>
       </c>
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" s="27"/>
+        <v>79</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="U24" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13">
+      <c r="F25" s="15">
         <f>J25/N25</f>
-        <v>0.241379310344828</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22">
-        <v>7</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22">
-        <v>11</v>
-      </c>
-      <c r="N25" s="22">
-        <v>29</v>
-      </c>
-      <c r="O25" s="22">
+        <v>0.769230769230769</v>
+      </c>
+      <c r="G25" s="15">
+        <f>K25/O25</f>
+        <v>1.28888888888889</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19">
+        <v>3</v>
+      </c>
+      <c r="J25" s="19">
+        <v>10</v>
+      </c>
+      <c r="K25" s="19">
         <v>58</v>
       </c>
-      <c r="P25" s="22">
-        <v>206</v>
-      </c>
-      <c r="Q25" s="26"/>
+      <c r="L25" s="19">
+        <v>239</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19">
+        <v>13</v>
+      </c>
+      <c r="O25" s="19">
+        <v>45</v>
+      </c>
+      <c r="P25" s="19">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>689</v>
+      </c>
       <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="19">
-        <v>2</v>
-      </c>
-      <c r="J26" s="19">
-        <v>16</v>
-      </c>
-      <c r="K26" s="19">
-        <v>20</v>
-      </c>
-      <c r="L26" s="19">
-        <v>36</v>
-      </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19">
-        <v>12</v>
-      </c>
-      <c r="O26" s="19">
-        <v>30</v>
-      </c>
-      <c r="P26" s="19">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="T26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V26" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W26" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15">
-        <f>J27/N27</f>
-        <v>0.769230769230769</v>
-      </c>
-      <c r="G27" s="15">
-        <f>K27/O27</f>
-        <v>1.28888888888889</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="19">
-        <v>3</v>
-      </c>
-      <c r="J27" s="19">
-        <v>10</v>
-      </c>
-      <c r="K27" s="19">
-        <v>58</v>
-      </c>
-      <c r="L27" s="19">
-        <v>239</v>
-      </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19">
-        <v>13</v>
-      </c>
-      <c r="O27" s="19">
-        <v>45</v>
-      </c>
-      <c r="P27" s="19">
-        <v>137</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>689</v>
-      </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="T27" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="V27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="S25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="31"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4479,61 +4247,55 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="U28" s="31"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="U30" s="31"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="3"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4554,11 +4316,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="U31" s="31"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="3"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4579,11 +4339,9 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="3"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4604,11 +4362,9 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="U33" s="31"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4629,11 +4385,9 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="U34" s="31"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4654,11 +4408,9 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="U35" s="31"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4679,11 +4431,9 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4704,11 +4454,9 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="3"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4729,11 +4477,9 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="U38" s="31"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="3"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4754,11 +4500,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="U39" s="31"/>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="3"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4779,11 +4523,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="U40" s="31"/>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="3"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4804,11 +4546,9 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="U41" s="31"/>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="3"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4829,11 +4569,9 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="U42" s="31"/>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4854,11 +4592,9 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="U43" s="31"/>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="3"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4879,11 +4615,9 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="U44" s="31"/>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="3"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4904,11 +4638,9 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="U45" s="31"/>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="3"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4929,11 +4661,9 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="U46" s="31"/>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="3"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4954,11 +4684,9 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="U47" s="31"/>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="3"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4979,11 +4707,9 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="U48" s="31"/>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="3"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5004,11 +4730,9 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="U49" s="31"/>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="3"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5029,11 +4753,9 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="U50" s="31"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="3"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5054,11 +4776,9 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="U51" s="31"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="3"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5079,11 +4799,9 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="U52" s="31"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="3"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5104,11 +4822,9 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="U53" s="31"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="3"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5129,11 +4845,9 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="U54" s="31"/>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="3"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5154,11 +4868,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="U55" s="31"/>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="3"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5179,11 +4891,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="U56" s="31"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="3"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5204,11 +4914,9 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="U57" s="31"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="3"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5229,11 +4937,9 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="U58" s="31"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="3"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5254,11 +4960,9 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="U59" s="31"/>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="3"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5279,11 +4983,9 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="U60" s="31"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="3"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5304,11 +5006,9 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="U61" s="31"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="3"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5329,11 +5029,9 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="U62" s="31"/>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="3"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5354,11 +5052,9 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="U63" s="31"/>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="3"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5379,11 +5075,9 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="3"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5404,11 +5098,9 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="3"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5430,10 +5122,8 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-    </row>
-    <row r="67" spans="1:23">
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="3"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5455,10 +5145,8 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-    </row>
-    <row r="68" spans="1:23">
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="3"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5480,10 +5168,8 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-    </row>
-    <row r="69" spans="1:23">
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="3"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5505,10 +5191,8 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-    </row>
-    <row r="70" spans="1:23">
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="3"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5530,10 +5214,8 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-    </row>
-    <row r="71" spans="1:23">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="3"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5555,10 +5237,8 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-    </row>
-    <row r="72" spans="1:23">
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="3"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5580,10 +5260,8 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-    </row>
-    <row r="73" spans="1:23">
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="3"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5605,10 +5283,8 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-    </row>
-    <row r="74" spans="1:23">
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="3"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5630,10 +5306,8 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-    </row>
-    <row r="75" spans="1:23">
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="3"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5655,10 +5329,8 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-    </row>
-    <row r="76" spans="1:23">
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="3"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5680,10 +5352,8 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-    </row>
-    <row r="77" spans="1:23">
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="3"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5705,10 +5375,8 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-    </row>
-    <row r="78" spans="1:23">
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="3"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5730,10 +5398,8 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-    </row>
-    <row r="79" spans="1:23">
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="3"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5755,10 +5421,8 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-    </row>
-    <row r="80" spans="1:23">
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="3"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5780,10 +5444,8 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-    </row>
-    <row r="81" spans="1:23">
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="3"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5805,10 +5467,8 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-    </row>
-    <row r="82" spans="1:23">
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="3"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5830,10 +5490,8 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-    </row>
-    <row r="83" spans="1:23">
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="3"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5855,10 +5513,8 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-    </row>
-    <row r="84" spans="1:23">
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="3"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5880,10 +5536,8 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-    </row>
-    <row r="85" spans="1:23">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="3"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5905,10 +5559,8 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-    </row>
-    <row r="86" spans="1:23">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="3"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5930,10 +5582,8 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-    </row>
-    <row r="87" spans="1:23">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="3"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5955,10 +5605,8 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-    </row>
-    <row r="88" spans="1:23">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="3"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5980,10 +5628,8 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-    </row>
-    <row r="89" spans="1:23">
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="3"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -6005,10 +5651,8 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-    </row>
-    <row r="90" spans="1:23">
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="3"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -6030,10 +5674,8 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-    </row>
-    <row r="91" spans="1:23">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="3"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -6055,10 +5697,8 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-    </row>
-    <row r="92" spans="1:23">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="3"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -6080,10 +5720,8 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-    </row>
-    <row r="93" spans="1:23">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="3"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -6105,10 +5743,8 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-    </row>
-    <row r="94" spans="1:23">
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="3"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -6130,10 +5766,8 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
-    </row>
-    <row r="95" spans="1:23">
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="3"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -6155,10 +5789,8 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
-    </row>
-    <row r="96" spans="1:23">
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="3"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -6180,10 +5812,8 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-    </row>
-    <row r="97" spans="1:23">
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="3"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -6205,10 +5835,8 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-    </row>
-    <row r="98" spans="1:23">
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="3"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -6230,10 +5858,8 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-    </row>
-    <row r="99" spans="1:23">
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99" s="3"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -6255,10 +5881,8 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-    </row>
-    <row r="100" spans="1:23">
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100" s="3"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -6280,10 +5904,8 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-    </row>
-    <row r="101" spans="1:23">
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="3"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -6305,10 +5927,8 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-    </row>
-    <row r="102" spans="1:23">
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="3"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -6330,10 +5950,8 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-    </row>
-    <row r="103" spans="1:23">
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103" s="3"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -6355,10 +5973,8 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
-    </row>
-    <row r="104" spans="1:23">
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104" s="3"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -6380,10 +5996,8 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-    </row>
-    <row r="105" spans="1:23">
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="3"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -6405,10 +6019,8 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
-    </row>
-    <row r="106" spans="1:23">
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="3"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -6430,10 +6042,8 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-    </row>
-    <row r="107" spans="1:23">
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="3"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -6455,10 +6065,8 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-    </row>
-    <row r="108" spans="1:23">
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="3"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -6480,10 +6088,8 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-    </row>
-    <row r="109" spans="1:23">
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="3"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -6505,10 +6111,8 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-    </row>
-    <row r="110" spans="1:23">
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="3"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -6530,10 +6134,8 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-    </row>
-    <row r="111" spans="1:23">
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="3"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -6555,10 +6157,8 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
-      <c r="V111" s="10"/>
-      <c r="W111" s="10"/>
-    </row>
-    <row r="112" spans="1:23">
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" s="3"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -6580,10 +6180,8 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-    </row>
-    <row r="113" spans="1:23">
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" s="3"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -6605,10 +6203,8 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-    </row>
-    <row r="114" spans="1:23">
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" s="3"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -6630,10 +6226,8 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
-      <c r="V114" s="10"/>
-      <c r="W114" s="10"/>
-    </row>
-    <row r="115" spans="1:23">
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" s="3"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -6655,10 +6249,8 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
-      <c r="V115" s="10"/>
-      <c r="W115" s="10"/>
-    </row>
-    <row r="116" spans="1:23">
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" s="3"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -6680,10 +6272,8 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
-      <c r="V116" s="10"/>
-      <c r="W116" s="10"/>
-    </row>
-    <row r="117" spans="1:23">
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" s="3"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -6705,10 +6295,8 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
-      <c r="V117" s="10"/>
-      <c r="W117" s="10"/>
-    </row>
-    <row r="118" spans="1:23">
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="3"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -6730,10 +6318,8 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-    </row>
-    <row r="119" spans="1:23">
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="3"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -6755,10 +6341,8 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
-      <c r="V119" s="10"/>
-      <c r="W119" s="10"/>
-    </row>
-    <row r="120" spans="1:23">
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" s="3"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -6780,10 +6364,8 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
-      <c r="V120" s="10"/>
-      <c r="W120" s="10"/>
-    </row>
-    <row r="121" spans="1:23">
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" s="3"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -6805,10 +6387,8 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
-      <c r="V121" s="10"/>
-      <c r="W121" s="10"/>
-    </row>
-    <row r="122" spans="1:23">
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" s="3"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -6830,10 +6410,8 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
-      <c r="V122" s="10"/>
-      <c r="W122" s="10"/>
-    </row>
-    <row r="123" spans="1:23">
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" s="3"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -6855,10 +6433,8 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
-      <c r="V123" s="10"/>
-      <c r="W123" s="10"/>
-    </row>
-    <row r="124" spans="1:23">
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" s="3"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -6880,10 +6456,8 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
-      <c r="V124" s="10"/>
-      <c r="W124" s="10"/>
-    </row>
-    <row r="125" spans="1:23">
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125" s="3"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -6905,10 +6479,8 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
-      <c r="V125" s="10"/>
-      <c r="W125" s="10"/>
-    </row>
-    <row r="126" spans="1:23">
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126" s="3"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -6930,10 +6502,8 @@
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
-      <c r="V126" s="10"/>
-      <c r="W126" s="10"/>
-    </row>
-    <row r="127" spans="1:23">
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" s="3"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -6955,10 +6525,8 @@
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
-      <c r="V127" s="10"/>
-      <c r="W127" s="10"/>
-    </row>
-    <row r="128" spans="1:23">
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" s="3"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -6980,10 +6548,8 @@
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
-      <c r="V128" s="10"/>
-      <c r="W128" s="10"/>
-    </row>
-    <row r="129" spans="1:23">
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" s="3"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -7005,10 +6571,8 @@
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
-      <c r="V129" s="10"/>
-      <c r="W129" s="10"/>
-    </row>
-    <row r="130" spans="1:23">
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" s="3"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -7030,10 +6594,8 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
-      <c r="V130" s="10"/>
-      <c r="W130" s="10"/>
-    </row>
-    <row r="131" spans="1:23">
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" s="3"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -7055,10 +6617,8 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
-    </row>
-    <row r="132" spans="1:23">
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" s="3"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -7080,10 +6640,8 @@
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
-      <c r="V132" s="10"/>
-      <c r="W132" s="10"/>
-    </row>
-    <row r="133" spans="1:23">
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" s="3"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -7105,10 +6663,8 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
-      <c r="V133" s="10"/>
-      <c r="W133" s="10"/>
-    </row>
-    <row r="134" spans="1:23">
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="3"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -7130,10 +6686,8 @@
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
-      <c r="V134" s="10"/>
-      <c r="W134" s="10"/>
-    </row>
-    <row r="135" spans="1:23">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="3"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -7155,10 +6709,8 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
-      <c r="V135" s="10"/>
-      <c r="W135" s="10"/>
-    </row>
-    <row r="136" spans="1:23">
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="3"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -7180,10 +6732,8 @@
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
-      <c r="V136" s="10"/>
-      <c r="W136" s="10"/>
-    </row>
-    <row r="137" spans="1:23">
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" s="3"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -7205,10 +6755,8 @@
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
-      <c r="V137" s="10"/>
-      <c r="W137" s="10"/>
-    </row>
-    <row r="138" spans="1:23">
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" s="3"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -7230,10 +6778,8 @@
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
-      <c r="V138" s="10"/>
-      <c r="W138" s="10"/>
-    </row>
-    <row r="139" spans="1:23">
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" s="3"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -7255,10 +6801,8 @@
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
       <c r="U139" s="3"/>
-      <c r="V139" s="10"/>
-      <c r="W139" s="10"/>
-    </row>
-    <row r="140" spans="1:23">
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" s="3"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -7280,10 +6824,8 @@
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
-      <c r="V140" s="10"/>
-      <c r="W140" s="10"/>
-    </row>
-    <row r="141" spans="1:23">
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" s="3"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -7305,10 +6847,8 @@
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
       <c r="U141" s="3"/>
-      <c r="V141" s="10"/>
-      <c r="W141" s="10"/>
-    </row>
-    <row r="142" spans="1:23">
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" s="3"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -7330,10 +6870,8 @@
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
       <c r="U142" s="3"/>
-      <c r="V142" s="10"/>
-      <c r="W142" s="10"/>
-    </row>
-    <row r="143" spans="1:23">
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="3"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -7355,10 +6893,8 @@
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
       <c r="U143" s="3"/>
-      <c r="V143" s="10"/>
-      <c r="W143" s="10"/>
-    </row>
-    <row r="144" spans="1:23">
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" s="3"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -7380,10 +6916,8 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
       <c r="U144" s="3"/>
-      <c r="V144" s="10"/>
-      <c r="W144" s="10"/>
-    </row>
-    <row r="145" spans="1:23">
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" s="3"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -7405,10 +6939,8 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
-      <c r="V145" s="10"/>
-      <c r="W145" s="10"/>
-    </row>
-    <row r="146" spans="1:23">
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" s="3"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -7430,10 +6962,8 @@
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
       <c r="U146" s="3"/>
-      <c r="V146" s="10"/>
-      <c r="W146" s="10"/>
-    </row>
-    <row r="147" spans="1:23">
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" s="3"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -7455,10 +6985,8 @@
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
       <c r="U147" s="3"/>
-      <c r="V147" s="10"/>
-      <c r="W147" s="10"/>
-    </row>
-    <row r="148" spans="1:23">
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" s="3"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -7480,10 +7008,8 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
       <c r="U148" s="3"/>
-      <c r="V148" s="10"/>
-      <c r="W148" s="10"/>
-    </row>
-    <row r="149" spans="1:23">
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" s="3"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -7505,10 +7031,8 @@
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-    </row>
-    <row r="150" spans="1:23">
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" s="3"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -7530,10 +7054,8 @@
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
-      <c r="V150" s="10"/>
-      <c r="W150" s="10"/>
-    </row>
-    <row r="151" spans="1:23">
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" s="3"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -7555,10 +7077,8 @@
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
       <c r="U151" s="3"/>
-      <c r="V151" s="10"/>
-      <c r="W151" s="10"/>
-    </row>
-    <row r="152" spans="1:23">
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" s="3"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -7580,10 +7100,8 @@
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
-      <c r="V152" s="10"/>
-      <c r="W152" s="10"/>
-    </row>
-    <row r="153" spans="1:23">
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" s="3"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -7605,10 +7123,8 @@
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
       <c r="U153" s="3"/>
-      <c r="V153" s="10"/>
-      <c r="W153" s="10"/>
-    </row>
-    <row r="154" spans="1:23">
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" s="3"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -7630,10 +7146,8 @@
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
-      <c r="V154" s="10"/>
-      <c r="W154" s="10"/>
-    </row>
-    <row r="155" spans="1:23">
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" s="3"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -7655,10 +7169,8 @@
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
       <c r="U155" s="3"/>
-      <c r="V155" s="10"/>
-      <c r="W155" s="10"/>
-    </row>
-    <row r="156" spans="1:23">
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" s="3"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -7680,10 +7192,8 @@
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
-      <c r="V156" s="10"/>
-      <c r="W156" s="10"/>
-    </row>
-    <row r="157" spans="1:23">
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" s="3"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -7705,10 +7215,8 @@
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
-      <c r="V157" s="10"/>
-      <c r="W157" s="10"/>
-    </row>
-    <row r="158" spans="1:23">
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" s="3"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -7730,10 +7238,8 @@
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
-      <c r="V158" s="10"/>
-      <c r="W158" s="10"/>
-    </row>
-    <row r="159" spans="1:23">
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159" s="3"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -7755,10 +7261,8 @@
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
       <c r="U159" s="3"/>
-      <c r="V159" s="10"/>
-      <c r="W159" s="10"/>
-    </row>
-    <row r="160" spans="1:23">
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160" s="3"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -7780,10 +7284,8 @@
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
       <c r="U160" s="3"/>
-      <c r="V160" s="10"/>
-      <c r="W160" s="10"/>
-    </row>
-    <row r="161" spans="1:23">
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="3"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -7805,10 +7307,8 @@
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
       <c r="U161" s="3"/>
-      <c r="V161" s="10"/>
-      <c r="W161" s="10"/>
-    </row>
-    <row r="162" spans="1:23">
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="3"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -7830,10 +7330,8 @@
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
-      <c r="V162" s="10"/>
-      <c r="W162" s="10"/>
-    </row>
-    <row r="163" spans="1:23">
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163" s="3"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -7855,10 +7353,8 @@
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
       <c r="U163" s="3"/>
-      <c r="V163" s="10"/>
-      <c r="W163" s="10"/>
-    </row>
-    <row r="164" spans="1:23">
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164" s="3"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -7880,10 +7376,8 @@
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-    </row>
-    <row r="165" spans="1:23">
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165" s="3"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -7905,10 +7399,8 @@
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
       <c r="U165" s="3"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-    </row>
-    <row r="166" spans="1:23">
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166" s="3"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -7930,10 +7422,8 @@
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-    </row>
-    <row r="167" spans="1:23">
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167" s="3"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -7955,10 +7445,8 @@
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
       <c r="U167" s="3"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-    </row>
-    <row r="168" spans="1:23">
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168" s="3"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -7980,10 +7468,8 @@
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
       <c r="U168" s="3"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
-    </row>
-    <row r="169" spans="1:23">
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169" s="3"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -8005,10 +7491,8 @@
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
       <c r="U169" s="3"/>
-      <c r="V169" s="10"/>
-      <c r="W169" s="10"/>
-    </row>
-    <row r="170" spans="1:23">
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170" s="3"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -8030,10 +7514,8 @@
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
       <c r="U170" s="3"/>
-      <c r="V170" s="10"/>
-      <c r="W170" s="10"/>
-    </row>
-    <row r="171" spans="1:23">
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171" s="3"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -8055,10 +7537,8 @@
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
       <c r="U171" s="3"/>
-      <c r="V171" s="10"/>
-      <c r="W171" s="10"/>
-    </row>
-    <row r="172" spans="1:23">
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172" s="3"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -8080,10 +7560,8 @@
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
       <c r="U172" s="3"/>
-      <c r="V172" s="10"/>
-      <c r="W172" s="10"/>
-    </row>
-    <row r="173" spans="1:23">
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" s="3"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -8105,10 +7583,8 @@
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
       <c r="U173" s="3"/>
-      <c r="V173" s="10"/>
-      <c r="W173" s="10"/>
-    </row>
-    <row r="174" spans="1:23">
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174" s="3"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -8130,10 +7606,8 @@
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
       <c r="U174" s="3"/>
-      <c r="V174" s="10"/>
-      <c r="W174" s="10"/>
-    </row>
-    <row r="175" spans="1:23">
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175" s="3"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -8155,10 +7629,8 @@
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
       <c r="U175" s="3"/>
-      <c r="V175" s="10"/>
-      <c r="W175" s="10"/>
-    </row>
-    <row r="176" spans="1:23">
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" s="3"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -8180,10 +7652,8 @@
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
-      <c r="V176" s="10"/>
-      <c r="W176" s="10"/>
-    </row>
-    <row r="177" spans="1:23">
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" s="3"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -8205,10 +7675,8 @@
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
       <c r="U177" s="3"/>
-      <c r="V177" s="10"/>
-      <c r="W177" s="10"/>
-    </row>
-    <row r="178" spans="1:23">
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" s="3"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -8230,10 +7698,8 @@
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
-      <c r="V178" s="10"/>
-      <c r="W178" s="10"/>
-    </row>
-    <row r="179" spans="1:23">
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179" s="3"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -8255,10 +7721,8 @@
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
       <c r="U179" s="3"/>
-      <c r="V179" s="10"/>
-      <c r="W179" s="10"/>
-    </row>
-    <row r="180" spans="1:23">
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" s="3"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -8280,10 +7744,8 @@
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
       <c r="U180" s="3"/>
-      <c r="V180" s="10"/>
-      <c r="W180" s="10"/>
-    </row>
-    <row r="181" spans="1:23">
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" s="3"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -8305,10 +7767,8 @@
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
       <c r="U181" s="3"/>
-      <c r="V181" s="10"/>
-      <c r="W181" s="10"/>
-    </row>
-    <row r="182" spans="1:23">
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182" s="3"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -8330,10 +7790,8 @@
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
       <c r="U182" s="3"/>
-      <c r="V182" s="10"/>
-      <c r="W182" s="10"/>
-    </row>
-    <row r="183" spans="1:23">
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183" s="3"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -8355,10 +7813,8 @@
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
-      <c r="V183" s="10"/>
-      <c r="W183" s="10"/>
-    </row>
-    <row r="184" spans="1:23">
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184" s="3"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -8380,10 +7836,8 @@
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
-      <c r="V184" s="10"/>
-      <c r="W184" s="10"/>
-    </row>
-    <row r="185" spans="1:23">
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185" s="3"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -8405,10 +7859,8 @@
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
       <c r="U185" s="3"/>
-      <c r="V185" s="10"/>
-      <c r="W185" s="10"/>
-    </row>
-    <row r="186" spans="1:23">
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186" s="3"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -8430,10 +7882,8 @@
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
       <c r="U186" s="3"/>
-      <c r="V186" s="10"/>
-      <c r="W186" s="10"/>
-    </row>
-    <row r="187" spans="1:23">
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187" s="3"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -8455,10 +7905,8 @@
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
       <c r="U187" s="3"/>
-      <c r="V187" s="10"/>
-      <c r="W187" s="10"/>
-    </row>
-    <row r="188" spans="1:23">
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188" s="3"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -8480,10 +7928,8 @@
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
       <c r="U188" s="3"/>
-      <c r="V188" s="10"/>
-      <c r="W188" s="10"/>
-    </row>
-    <row r="189" spans="1:23">
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189" s="3"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -8505,10 +7951,8 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
       <c r="U189" s="3"/>
-      <c r="V189" s="10"/>
-      <c r="W189" s="10"/>
-    </row>
-    <row r="190" spans="1:23">
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190" s="3"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -8530,10 +7974,8 @@
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
       <c r="U190" s="3"/>
-      <c r="V190" s="10"/>
-      <c r="W190" s="10"/>
-    </row>
-    <row r="191" spans="1:23">
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191" s="3"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -8555,10 +7997,8 @@
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
       <c r="U191" s="3"/>
-      <c r="V191" s="10"/>
-      <c r="W191" s="10"/>
-    </row>
-    <row r="192" spans="1:23">
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192" s="3"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -8580,10 +8020,8 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
       <c r="U192" s="3"/>
-      <c r="V192" s="10"/>
-      <c r="W192" s="10"/>
-    </row>
-    <row r="193" spans="1:23">
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193" s="3"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -8605,10 +8043,8 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
       <c r="U193" s="3"/>
-      <c r="V193" s="10"/>
-      <c r="W193" s="10"/>
-    </row>
-    <row r="194" spans="1:23">
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194" s="3"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -8630,10 +8066,8 @@
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
       <c r="U194" s="3"/>
-      <c r="V194" s="10"/>
-      <c r="W194" s="10"/>
-    </row>
-    <row r="195" spans="1:23">
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195" s="3"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -8655,10 +8089,8 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
       <c r="U195" s="3"/>
-      <c r="V195" s="10"/>
-      <c r="W195" s="10"/>
-    </row>
-    <row r="196" spans="1:23">
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196" s="3"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -8680,10 +8112,8 @@
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
       <c r="U196" s="3"/>
-      <c r="V196" s="10"/>
-      <c r="W196" s="10"/>
-    </row>
-    <row r="197" spans="1:23">
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197" s="3"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -8705,10 +8135,8 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
       <c r="U197" s="3"/>
-      <c r="V197" s="10"/>
-      <c r="W197" s="10"/>
-    </row>
-    <row r="198" spans="1:23">
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198" s="3"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -8730,10 +8158,8 @@
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
-      <c r="V198" s="10"/>
-      <c r="W198" s="10"/>
-    </row>
-    <row r="199" spans="1:23">
+    </row>
+    <row r="199" spans="1:21">
       <c r="A199" s="3"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -8755,10 +8181,8 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
-      <c r="V199" s="10"/>
-      <c r="W199" s="10"/>
-    </row>
-    <row r="200" spans="1:23">
+    </row>
+    <row r="200" spans="1:21">
       <c r="A200" s="3"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -8780,10 +8204,8 @@
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
-      <c r="V200" s="10"/>
-      <c r="W200" s="10"/>
-    </row>
-    <row r="201" spans="1:23">
+    </row>
+    <row r="201" spans="1:21">
       <c r="A201" s="3"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -8805,10 +8227,8 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
-      <c r="V201" s="10"/>
-      <c r="W201" s="10"/>
-    </row>
-    <row r="202" spans="1:23">
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202" s="3"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -8830,10 +8250,8 @@
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
-      <c r="V202" s="10"/>
-      <c r="W202" s="10"/>
-    </row>
-    <row r="203" spans="1:23">
+    </row>
+    <row r="203" spans="1:21">
       <c r="A203" s="3"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -8855,65 +8273,13 @@
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
       <c r="U203" s="3"/>
-      <c r="V203" s="10"/>
-      <c r="W203" s="10"/>
-    </row>
-    <row r="204" spans="1:23">
-      <c r="A204" s="3"/>
-      <c r="B204" s="10"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
-      <c r="L204" s="10"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
-      <c r="U204" s="3"/>
-      <c r="V204" s="10"/>
-      <c r="W204" s="10"/>
-    </row>
-    <row r="205" spans="1:23">
-      <c r="A205" s="3"/>
-      <c r="B205" s="10"/>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="10"/>
-      <c r="J205" s="10"/>
-      <c r="K205" s="10"/>
-      <c r="L205" s="10"/>
-      <c r="M205" s="10"/>
-      <c r="N205" s="10"/>
-      <c r="O205" s="10"/>
-      <c r="P205" s="10"/>
-      <c r="Q205" s="3"/>
-      <c r="R205" s="3"/>
-      <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
-      <c r="U205" s="3"/>
-      <c r="V205" s="10"/>
-      <c r="W205" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/dyb.xlsx
+++ b/data/dyb.xlsx
@@ -1735,7 +1735,7 @@
     <t>2002-至今</t>
   </si>
   <si>
-    <t>成度</t>
+    <t>成都</t>
   </si>
   <si>
     <t>四川省</t>
@@ -3101,11 +3101,11 @@
   <dimension ref="A1:AF207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="15.2"/>
@@ -4335,12 +4335,8 @@
       <c r="U17" s="21">
         <v>2030</v>
       </c>
-      <c r="V17" s="25">
-        <v>8000</v>
-      </c>
-      <c r="W17" s="25">
-        <v>5000000</v>
-      </c>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
       <c r="X17" s="25">
         <v>8505</v>
       </c>
@@ -4393,12 +4389,8 @@
       <c r="U18" s="21">
         <v>2030</v>
       </c>
-      <c r="V18" s="25">
-        <v>8000</v>
-      </c>
-      <c r="W18" s="25">
-        <v>5000000</v>
-      </c>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
       <c r="X18" s="25">
         <v>8505</v>
       </c>
@@ -4451,12 +4443,8 @@
       <c r="U19" s="21">
         <v>2030</v>
       </c>
-      <c r="V19" s="25">
-        <v>8000</v>
-      </c>
-      <c r="W19" s="25">
-        <v>5000000</v>
-      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
       <c r="X19" s="25">
         <v>8505</v>
       </c>
